--- a/cmip6/models/cnrm-cm6-1/cmip6_cnrm-cerfacs_cnrm-cm6-1_land.xlsx
+++ b/cmip6/models/cnrm-cm6-1/cmip6_cnrm-cerfacs_cnrm-cm6-1_land.xlsx
@@ -48,7 +48,7 @@
     <t>CNRM-CM6-1</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/cnrm-cm6-1/cmip6_cnrm-cerfacs_cnrm-cm6-1_land.xlsx
+++ b/cmip6/models/cnrm-cm6-1/cmip6_cnrm-cerfacs_cnrm-cm6-1_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="834">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -174,9 +174,6 @@
     <t>cmip6.land.key_properties.name</t>
   </si>
   <si>
-    <t>"SURface EXternalisee" in French (Externalized surface platform) for land</t>
-  </si>
-  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -234,19 +231,19 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>carbon</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phospherous</t>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Phospherous</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -276,34 +273,19 @@
     <t>cmip6.land.key_properties.land_cover</t>
   </si>
   <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>bare soil</t>
-  </si>
-  <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
-    <t>land ice</t>
-  </si>
-  <si>
-    <t>lake ice</t>
-  </si>
-  <si>
-    <t>vegetated</t>
-  </si>
-  <si>
     <t>Bare soil</t>
   </si>
   <si>
+    <t>Urban</t>
+  </si>
+  <si>
     <t>Lake</t>
   </si>
   <si>
-    <t>Urban</t>
+    <t>Land ice</t>
+  </si>
+  <si>
+    <t>Lake ice</t>
   </si>
   <si>
     <t>Vegetated</t>
@@ -345,9 +327,6 @@
     <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -357,9 +336,6 @@
     <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -369,9 +345,6 @@
     <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
-    <t>Carbon</t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -672,9 +645,6 @@
     <t>cmip6.land.soil.soil_map.structure</t>
   </si>
   <si>
-    <t>Topographic index at 1km resolution from HYDRO1K</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.2.1.3 </t>
   </si>
   <si>
@@ -687,9 +657,6 @@
     <t>cmip6.land.soil.soil_map.texture</t>
   </si>
   <si>
-    <t>FAO clay and sand content at 1km resolution</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.2.1.4 </t>
   </si>
   <si>
@@ -714,9 +681,6 @@
     <t>cmip6.land.soil.soil_map.albedo</t>
   </si>
   <si>
-    <t>ECOCLIMAP database at 1km resolution</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.2.1.6 </t>
   </si>
   <si>
@@ -786,13 +750,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>vegetation type</t>
-  </si>
-  <si>
-    <t>soil humidity</t>
-  </si>
-  <si>
-    <t>vegetation state</t>
+    <t>Vegetation type</t>
+  </si>
+  <si>
+    <t>Soil humidity</t>
+  </si>
+  <si>
+    <t>Vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -807,10 +771,10 @@
     <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
   </si>
   <si>
-    <t>distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>no distinction between direct and diffuse albedo</t>
+    <t>Distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>No distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -897,10 +861,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>perfect connectivity: Common soil for multiple tiles</t>
-  </si>
-  <si>
-    <t>Darcian flow: Darcian flow among hillslope tiles</t>
+    <t>Perfect connectivity</t>
+  </si>
+  <si>
+    <t>Darcian flow</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -915,12 +879,12 @@
     <t>cmip6.land.soil.hydrology.method</t>
   </si>
   <si>
+    <t>Bucket</t>
+  </si>
+  <si>
     <t>Force-restore</t>
   </si>
   <si>
-    <t>Bucket</t>
-  </si>
-  <si>
     <t>Choisnel</t>
   </si>
   <si>
@@ -960,9 +924,6 @@
     <t>cmip6.land.soil.hydrology.freezing.ice_storage_method</t>
   </si>
   <si>
-    <t>Energy consumption method</t>
-  </si>
-  <si>
     <t>3.4.2.3 *</t>
   </si>
   <si>
@@ -1011,7 +972,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>topmodel-based</t>
+    <t>Topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1092,10 +1053,7 @@
     <t>Soil moisture freeze-thaw</t>
   </si>
   <si>
-    <t>soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>coupling with snow temperature</t>
+    <t>Coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1158,10 +1116,7 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>prognostic</t>
-  </si>
-  <si>
-    <t>constant</t>
+    <t>Constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1176,7 +1131,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>diagnostic</t>
+    <t>Diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1230,12 +1185,6 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
-    <t>ground snow fraction</t>
-  </si>
-  <si>
-    <t>vegetation snow fraction</t>
-  </si>
-  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1248,19 +1197,16 @@
     <t>cmip6.land.snow.processes</t>
   </si>
   <si>
+    <t>Snow interception</t>
+  </si>
+  <si>
     <t>Snow melting</t>
   </si>
   <si>
-    <t>snow interception</t>
-  </si>
-  <si>
-    <t>snow melting</t>
-  </si>
-  <si>
-    <t>snow freezing</t>
-  </si>
-  <si>
-    <t>blowing snow</t>
+    <t>Snow freezing</t>
+  </si>
+  <si>
+    <t>Blowing snow</t>
   </si>
   <si>
     <t>4.1.1.12 *</t>
@@ -1293,7 +1239,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>prescribed</t>
+    <t>Prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1308,21 +1254,15 @@
     <t>Snow age</t>
   </si>
   <si>
-    <t>snow age</t>
-  </si>
-  <si>
-    <t>snow density</t>
-  </si>
-  <si>
-    <t>snow grain type</t>
-  </si>
-  <si>
-    <t>aerosol deposition</t>
-  </si>
-  <si>
     <t>Snow density</t>
   </si>
   <si>
+    <t>Snow grain type</t>
+  </si>
+  <si>
+    <t>Aerosol deposition</t>
+  </si>
+  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -1395,10 +1335,7 @@
     <t>Vegetation types</t>
   </si>
   <si>
-    <t>vegetation types</t>
-  </si>
-  <si>
-    <t>biome types</t>
+    <t>Biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1413,24 +1350,18 @@
     <t>cmip6.land.vegetation.vegetation_types</t>
   </si>
   <si>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
+  </si>
+  <si>
     <t>C3 grass</t>
   </si>
   <si>
-    <t>broadleaf tree</t>
-  </si>
-  <si>
-    <t>needleleaf tree</t>
-  </si>
-  <si>
     <t>C4 grass</t>
   </si>
   <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.8 </t>
   </si>
   <si>
@@ -1443,40 +1374,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>mixed forest</t>
-  </si>
-  <si>
-    <t>woodland</t>
-  </si>
-  <si>
-    <t>wooded grassland</t>
-  </si>
-  <si>
-    <t>closed shrubland</t>
-  </si>
-  <si>
-    <t>opne shrubland</t>
-  </si>
-  <si>
-    <t>grassland</t>
-  </si>
-  <si>
-    <t>cropland</t>
-  </si>
-  <si>
-    <t>wetlands</t>
+    <t>Evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>Evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>Deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>Deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>Mixed forest</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Wooded grassland</t>
+  </si>
+  <si>
+    <t>Closed shrubland</t>
+  </si>
+  <si>
+    <t>Opne shrubland</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1494,13 +1425,10 @@
     <t>Fixed (not varying)</t>
   </si>
   <si>
-    <t>fixed (not varying)</t>
-  </si>
-  <si>
-    <t>prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>dynamical (varying from simulation)</t>
+    <t>Prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>Dynamical (varying from simulation)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1539,7 +1467,7 @@
     <t>cmip6.land.vegetation.phenology</t>
   </si>
   <si>
-    <t>diagnostic (vegetation map)</t>
+    <t>Diagnostic (vegetation map)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.13 </t>
@@ -1566,9 +1494,6 @@
     <t>cmip6.land.vegetation.leaf_area_index</t>
   </si>
   <si>
-    <t>Prescribed</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1644,13 +1569,7 @@
     <t>Light</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>water availability</t>
+    <t>Water availability</t>
   </si>
   <si>
     <t>CO2</t>
@@ -1659,9 +1578,6 @@
     <t>O3</t>
   </si>
   <si>
-    <t>Water availability</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1743,18 +1659,15 @@
     <t>cmip6.land.energy_balance.evaporation</t>
   </si>
   <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
     <t>Combined</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>combined</t>
-  </si>
-  <si>
     <t>Monteith potential evaporation</t>
   </si>
   <si>
@@ -1770,9 +1683,6 @@
     <t>Transpiration</t>
   </si>
   <si>
-    <t>transpiration</t>
-  </si>
-  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1830,13 +1740,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>grand slam protocol</t>
-  </si>
-  <si>
-    <t>residence time</t>
-  </si>
-  <si>
-    <t>decay time</t>
+    <t>Grand slam protocol</t>
+  </si>
+  <si>
+    <t>Residence time</t>
+  </si>
+  <si>
+    <t>Decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1974,16 +1884,16 @@
     <t>cmip6.land.carbon_cycle.vegetation.allocation.allocation_bins</t>
   </si>
   <si>
-    <t>leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>whole plant (no distinction)</t>
+    <t>Leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>Leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>Leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>Whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1998,16 +1908,16 @@
     <t>cmip6.land.carbon_cycle.vegetation.allocation.allocation_fractions</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>function of vegetation type</t>
-  </si>
-  <si>
-    <t>function of plant allometry</t>
-  </si>
-  <si>
-    <t>explicitly calculated</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Function of vegetation type</t>
+  </si>
+  <si>
+    <t>Function of plant allometry</t>
+  </si>
+  <si>
+    <t>Explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2253,9 +2163,6 @@
     <t>cmip6.land.river_routing.overview</t>
   </si>
   <si>
-    <t>TRIP (Oki and Sud 1998) is a river routing model used to convert the daily runoff simulated by ISBA into river discharge on the global river channel network at 1° resolution. It is a simple linear model based on a single prognostic equation for the water mass within each grid cell of the hydrologic network. The runoff from ISBA is fed to TRIP every day and TRIP is integrated with a 3-hour time step.</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.1.1.3 </t>
   </si>
   <si>
@@ -2322,10 +2229,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>flood plains</t>
-  </si>
-  <si>
-    <t>irrigation</t>
+    <t>Flood plains</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2364,10 +2271,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>tracers</t>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2385,10 +2292,7 @@
     <t>Present day</t>
   </si>
   <si>
-    <t>present day</t>
-  </si>
-  <si>
-    <t>adapted for other periods</t>
+    <t>Adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2433,15 +2337,12 @@
     <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
   </si>
   <si>
+    <t>Direct (large rivers)</t>
+  </si>
+  <si>
     <t>Diffuse</t>
   </si>
   <si>
-    <t>direct (large rivers)</t>
-  </si>
-  <si>
-    <t>diffuse</t>
-  </si>
-  <si>
     <t>9.2.1.2 *</t>
   </si>
   <si>
@@ -2481,9 +2382,6 @@
     <t>cmip6.land.lakes.overview</t>
   </si>
   <si>
-    <t>Simple flux calculation using the formulation of Louis [1979]</t>
-  </si>
-  <si>
     <t>10.1.1.3 *</t>
   </si>
   <si>
@@ -2568,9 +2466,6 @@
     <t>cmip6.land.lakes.method.albedo</t>
   </si>
   <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
     <t>10.2.1.3 *</t>
   </si>
   <si>
@@ -2586,10 +2481,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>vertical</t>
-  </si>
-  <si>
-    <t>horizontal</t>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3292,20 +3187,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3316,10 +3211,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3327,10 +3222,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3338,15 +3233,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3354,10 +3249,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3365,15 +3260,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>726</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3381,21 +3276,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>729</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3403,10 +3298,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3414,15 +3309,15 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
@@ -3454,20 +3349,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3478,10 +3373,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3489,10 +3384,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3500,28 +3395,26 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>742</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3529,15 +3422,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3545,21 +3438,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3567,21 +3460,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3589,10 +3482,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3600,10 +3493,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3611,45 +3504,43 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
-      <c r="B32" s="11">
-        <v>1</v>
-      </c>
+      <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3660,45 +3551,43 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>771</v>
+        <v>740</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>772</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3706,15 +3595,15 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="178" customHeight="1">
@@ -3722,21 +3611,21 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>775</v>
+        <v>744</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3747,57 +3636,55 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>783</v>
+        <v>752</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="B55" s="11" t="s">
-        <v>785</v>
-      </c>
+      <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3805,15 +3692,15 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="178" customHeight="1">
@@ -3821,10 +3708,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3832,15 +3719,15 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -3848,67 +3735,65 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="B73" s="11" t="s">
-        <v>802</v>
-      </c>
+      <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
-        <v>803</v>
+        <v>770</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>807</v>
+        <v>774</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>808</v>
+        <v>775</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3917,20 +3802,18 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3983,20 +3866,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>810</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>812</v>
+        <v>779</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4007,10 +3890,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4018,10 +3901,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>815</v>
+        <v>782</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4029,63 +3912,59 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>816</v>
+        <v>783</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11" t="s">
-        <v>818</v>
-      </c>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>819</v>
+        <v>785</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>820</v>
+        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>821</v>
+        <v>787</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>822</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>823</v>
+        <v>789</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>824</v>
+        <v>790</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>825</v>
+        <v>791</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4093,21 +3972,21 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>826</v>
+        <v>792</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>827</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>829</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4118,24 +3997,24 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>830</v>
+        <v>796</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4143,10 +4022,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>832</v>
+        <v>798</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>833</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4154,10 +4033,10 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>834</v>
+        <v>800</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
@@ -4165,15 +4044,15 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4181,91 +4060,87 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>843</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>846</v>
+        <v>812</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>847</v>
-      </c>
+      <c r="B45" s="11"/>
       <c r="AA45" s="6" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>848</v>
+        <v>813</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>849</v>
+        <v>814</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>850</v>
+        <v>815</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>851</v>
+        <v>816</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4276,85 +4151,81 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>852</v>
+        <v>817</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>853</v>
+        <v>818</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>854</v>
+        <v>819</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>856</v>
+        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>857</v>
+        <v>822</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>858</v>
+        <v>823</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>862</v>
+        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="B58" s="11" t="b">
-        <v>1</v>
-      </c>
+      <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>864</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -4362,15 +4233,15 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
       <c r="B66" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="178" customHeight="1">
@@ -4506,7 +4377,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD109"/>
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4551,16 +4422,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4568,15 +4437,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -4584,10 +4453,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4595,15 +4464,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -4611,10 +4480,10 @@
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
@@ -4622,15 +4491,15 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="178" customHeight="1">
@@ -4638,21 +4507,21 @@
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
@@ -4663,30 +4532,30 @@
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="B26" s="11"/>
       <c r="AA26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AB26" s="6" t="s">
+      <c r="AC26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AC26" s="6" t="s">
+      <c r="AD26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AD26" s="6" t="s">
+      <c r="AE26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AF26" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="AF26" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
@@ -4694,10 +4563,10 @@
         <v>46</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -4705,21 +4574,21 @@
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
@@ -4728,141 +4597,57 @@
       </c>
     </row>
     <row r="35" spans="1:33" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="11"/>
+      <c r="AA35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AA35" s="6" t="s">
+      <c r="AC35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AB35" s="6" t="s">
+      <c r="AD35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AC35" s="6" t="s">
+      <c r="AE35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AF35" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AG35" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
+    </row>
+    <row r="38" spans="1:33" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="AA36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE36" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" ht="24" customHeight="1">
-      <c r="B37" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AA37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" ht="24" customHeight="1">
-      <c r="B38" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA38" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG38" s="6" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
@@ -4870,166 +4655,166 @@
         <v>46</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="24" customHeight="1">
+      <c r="B43" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="178" customHeight="1">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="47" spans="1:33" ht="24" customHeight="1">
+      <c r="A47" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="B47" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
-    </row>
-    <row r="45" spans="1:33" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
+    <row r="48" spans="1:33" ht="24" customHeight="1">
+      <c r="B48" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="9" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" ht="24" customHeight="1">
-      <c r="A46" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="10" t="s">
+      <c r="B50" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="24" customHeight="1">
-      <c r="B47" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" ht="178" customHeight="1">
-      <c r="B48" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="12" t="s">
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="B52" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="178" customHeight="1">
+      <c r="B53" s="11"/>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B55" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="13" t="s">
+      <c r="C56" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="9" t="s">
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="B57" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="178" customHeight="1">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="A60" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B60" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="A61" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="10" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="B62" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="178" customHeight="1">
+      <c r="B63" s="11"/>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="B56" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="178" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="A59" s="9" t="s">
+      <c r="B66" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="9" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B60" s="10" t="s">
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="A69" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="178" customHeight="1">
-      <c r="B62" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="178" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="B71" s="11"/>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
@@ -5037,67 +4822,67 @@
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
       <c r="A78" s="14" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="9" t="s">
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="13" t="s">
-        <v>136</v>
-      </c>
+      <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5105,10 +4890,10 @@
         <v>46</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
@@ -5116,10 +4901,10 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
@@ -5127,106 +4912,72 @@
         <v>46</v>
       </c>
       <c r="B94" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="B95" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="B96" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="B100" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="B102" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="9" t="s">
+      <c r="C103" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="11"/>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="B108" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="178" customHeight="1">
-      <c r="B109" s="11"/>
+      <c r="B104" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="178" customHeight="1">
+      <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
       <formula1>AA26:AF26</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>AA35:AG35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AG36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>AA37:AG37</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AG38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AG39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5250,20 +5001,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5274,10 +5025,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5285,10 +5036,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5296,15 +5047,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5312,23 +5063,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -5336,15 +5087,15 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -5352,21 +5103,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5374,23 +5125,23 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -5398,15 +5149,15 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="178" customHeight="1">
@@ -5414,21 +5165,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5463,20 +5214,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5487,10 +5238,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5498,10 +5249,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5509,15 +5260,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5525,10 +5276,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5536,10 +5287,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5547,21 +5298,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5569,10 +5320,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5580,15 +5331,15 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5596,23 +5347,23 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -5620,15 +5371,15 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="178" customHeight="1">
@@ -5636,10 +5387,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5647,23 +5398,21 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11" t="s">
-        <v>215</v>
-      </c>
+      <c r="B37" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5671,23 +5420,21 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11" t="s">
-        <v>220</v>
-      </c>
+      <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5695,10 +5442,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5706,10 +5453,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5717,23 +5464,21 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11" t="s">
-        <v>229</v>
-      </c>
+      <c r="B49" s="11"/>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5741,10 +5486,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5752,21 +5497,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5774,10 +5519,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5785,10 +5530,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5796,34 +5541,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5831,21 +5576,21 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5856,66 +5601,66 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5923,23 +5668,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5947,15 +5692,15 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="178" customHeight="1">
@@ -5963,21 +5708,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5985,10 +5730,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5996,15 +5741,15 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="178" customHeight="1">
@@ -6012,10 +5757,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6023,15 +5768,15 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="178" customHeight="1">
@@ -6039,45 +5784,43 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11">
-        <v>3</v>
-      </c>
+      <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -6088,97 +5831,93 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="AC114" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
-      <c r="B118" s="11" t="s">
-        <v>296</v>
-      </c>
+      <c r="B118" s="11"/>
       <c r="AA118" s="6" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AE118" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
-      <c r="B126" s="11">
-        <v>2</v>
-      </c>
+      <c r="B126" s="11"/>
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6186,23 +5925,21 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11" t="s">
-        <v>311</v>
-      </c>
+      <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6210,15 +5947,15 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="B134" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="178" customHeight="1">
@@ -6226,23 +5963,23 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
@@ -6250,15 +5987,15 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="B143" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="178" customHeight="1">
@@ -6266,21 +6003,21 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6291,46 +6028,46 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="AG149" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:33" ht="24" customHeight="1">
@@ -6338,15 +6075,15 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
       <c r="B157" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:33" ht="178" customHeight="1">
@@ -6354,21 +6091,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6376,10 +6113,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6387,15 +6124,15 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
       <c r="B166" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="178" customHeight="1">
@@ -6403,10 +6140,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6414,15 +6151,15 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
       <c r="B171" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="178" customHeight="1">
@@ -6430,54 +6167,52 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
       <c r="A175" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
-      <c r="B176" s="11" t="s">
-        <v>296</v>
-      </c>
+      <c r="B176" s="11"/>
       <c r="AA176" s="6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AC176" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
       <c r="A179" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6486,17 +6221,15 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="B181" s="11"/>
       <c r="AA181" s="6" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AC181" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6553,7 +6286,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD70"/>
+  <dimension ref="A1:XFD68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6567,20 +6300,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6591,10 +6324,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6602,10 +6335,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -6613,15 +6346,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -6629,10 +6362,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6640,15 +6373,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -6656,204 +6389,198 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
-      <c r="B20" s="11">
-        <v>1</v>
-      </c>
+      <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
-      <c r="B24" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6862,225 +6589,180 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="11"/>
+      <c r="AA45" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="24" customHeight="1">
+      <c r="B49" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="24" customHeight="1">
+      <c r="B50" s="11"/>
+      <c r="AA50" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC50" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD50" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE50" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="24" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="24" customHeight="1">
+      <c r="B55" s="11"/>
+    </row>
+    <row r="58" spans="1:31" ht="24" customHeight="1">
+      <c r="A58" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
+      <c r="B59" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="AA45" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="AB45" s="6" t="s">
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="AC45" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="24" customHeight="1">
-      <c r="B46" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="AA46" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="AC46" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
+      <c r="B63" s="11"/>
+      <c r="AA63" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB63" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="AC63" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="B65" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1">
-      <c r="B50" s="10" t="s">
+      <c r="C66" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="24" customHeight="1">
+      <c r="B67" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="24" customHeight="1">
-      <c r="B51" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="AA51" s="6" t="s">
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="B68" s="11"/>
+      <c r="AA68" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB68" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AB51" s="6" t="s">
+      <c r="AC68" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="AC51" s="6" t="s">
+      <c r="AD68" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AD51" s="6" t="s">
+      <c r="AE68" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AE51" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="A54" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="B55" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="B56" s="11"/>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="A59" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" ht="24" customHeight="1">
-      <c r="B60" s="13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="B64" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA64" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB64" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC64" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD64" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1">
-      <c r="A67" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="B68" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="B69" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA69" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB69" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC69" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD69" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE69" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AF69" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="AA70" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC70" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD70" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE70" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AF70" s="6" t="s">
-        <v>74</v>
+      <c r="AF68" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="10">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -7102,20 +6784,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>AA45:AC45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AC46</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+      <formula1>AA50:AE50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>AA51:AE51</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AD63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>AA64:AD64</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
-      <formula1>AA69:AF69</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
+      <formula1>AA68:AF68</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7124,7 +6800,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD107"/>
+  <dimension ref="A1:XFD101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7138,20 +6814,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7162,10 +6838,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7173,10 +6849,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7184,15 +6860,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7200,21 +6876,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7222,21 +6898,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7244,10 +6920,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7255,15 +6931,15 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="178" customHeight="1">
@@ -7271,54 +6947,52 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11" t="s">
-        <v>455</v>
-      </c>
+      <c r="B28" s="11"/>
       <c r="AA28" s="6" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7327,654 +7001,506 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="11"/>
+      <c r="AA33" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="24" customHeight="1">
+      <c r="A36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="24" customHeight="1">
+      <c r="B37" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="24" customHeight="1">
+      <c r="B38" s="11"/>
+      <c r="AA38" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC38" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD38" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE38" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF38" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG38" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH38" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI38" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AJ38" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AK38" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL38" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AM38" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" ht="24" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="AA33" s="6" t="s">
+    </row>
+    <row r="41" spans="1:39" ht="24" customHeight="1">
+      <c r="A41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="AB33" s="6" t="s">
+      <c r="C41" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" ht="24" customHeight="1">
-      <c r="B34" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA34" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC34" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" ht="24" customHeight="1">
-      <c r="B35" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA35" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE35" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF35" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1">
-      <c r="B36" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA36" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE36" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF36" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="24" customHeight="1">
-      <c r="B37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA37" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC37" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" ht="24" customHeight="1">
-      <c r="B41" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="AE42" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG42" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH42" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="AI42" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="AJ42" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK42" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AL42" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
       <c r="A45" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
-      <c r="B46" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA46" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AC46" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="AD46" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
+      <c r="B50" s="11"/>
+    </row>
+    <row r="52" spans="1:30" ht="24" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
+      <c r="B54" s="11"/>
+      <c r="AA54" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="24" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="24" customHeight="1">
+      <c r="B58" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="178" customHeight="1">
+      <c r="B59" s="11"/>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
+      <c r="B63" s="11"/>
+      <c r="AA63" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B48" s="9" t="s">
+    </row>
+    <row r="67" spans="1:29" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="178" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="70" spans="1:29" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C49" s="10" t="s">
+    </row>
+    <row r="71" spans="1:29" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:29" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B52" s="9" t="s">
+    </row>
+    <row r="72" spans="1:29" ht="24" customHeight="1">
+      <c r="B72" s="11"/>
+      <c r="AA72" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C53" s="10" t="s">
+    </row>
+    <row r="75" spans="1:29" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" ht="24" customHeight="1">
-      <c r="B54" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="76" spans="1:29" ht="24" customHeight="1">
+      <c r="B76" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" ht="178" customHeight="1">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="79" spans="1:29" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="80" spans="1:29" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-      <c r="AA58" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB58" s="6" t="s">
+      <c r="C80" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="AC58" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="24" customHeight="1">
-      <c r="B62" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="178" customHeight="1">
-      <c r="B63" s="11"/>
-    </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
-      <c r="B67" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA67" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB67" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AC67" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="AD67" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
-      <c r="B71" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" ht="178" customHeight="1">
-      <c r="B72" s="11"/>
-    </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
-      <c r="AA76" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB76" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="AC76" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="A79" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="24" customHeight="1">
-      <c r="B80" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" ht="178" customHeight="1">
+    </row>
+    <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="B81" s="11"/>
+      <c r="AA81" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB81" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC81" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
       <c r="A84" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
-      <c r="B85" s="11"/>
-      <c r="AA85" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB85" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="AC85" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>531</v>
-      </c>
+      <c r="B85" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" ht="178" customHeight="1">
+      <c r="B86" s="11"/>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
-      <c r="A88" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>533</v>
+      <c r="A88" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="24" customHeight="1">
-      <c r="B89" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="1:32" ht="178" customHeight="1">
-      <c r="B90" s="11"/>
-    </row>
-    <row r="92" spans="1:32" ht="24" customHeight="1">
-      <c r="A92" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>535</v>
+      <c r="A89" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" ht="24" customHeight="1">
+      <c r="B90" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" ht="24" customHeight="1">
+      <c r="B91" s="11"/>
+      <c r="AA91" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AD91" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE91" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AF91" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
-      <c r="A93" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>537</v>
+      <c r="A93" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
+      <c r="A94" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="B94" s="10" t="s">
-        <v>31</v>
+        <v>519</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
-      <c r="B95" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="AA95" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="AB95" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="AC95" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD95" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE95" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF95" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" ht="24" customHeight="1">
-      <c r="B96" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA96" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="AB96" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="AC96" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD96" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE96" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF96" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:32" ht="24" customHeight="1">
-      <c r="B97" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="AA97" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="AB97" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="AC97" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD97" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE97" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="AF97" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:32" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="100" spans="1:32" ht="24" customHeight="1">
-      <c r="A100" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="101" spans="1:32" ht="24" customHeight="1">
-      <c r="B101" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="102" spans="1:32" ht="178" customHeight="1">
-      <c r="B102" s="11"/>
-    </row>
-    <row r="104" spans="1:32" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" spans="1:32" ht="24" customHeight="1">
-      <c r="A105" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="106" spans="1:32" ht="24" customHeight="1">
-      <c r="B106" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:32" ht="24" customHeight="1">
-      <c r="B107" s="11"/>
+      <c r="B95" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" ht="178" customHeight="1">
+      <c r="B96" s="11"/>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="B100" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="12">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
@@ -7987,47 +7513,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>AA33:AF33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>AA34:AF34</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AF35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AF36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>AA37:AF37</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>AA38:AM38</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AM42</formula1>
+      <formula1>AA42:AD42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>AA46:AD46</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>"TRUE,FALSE"</formula1>
+      <formula1>AA54:AC54</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>AA58:AC58</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AD63</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AD67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>AA72:AC72</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AC76</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
+      <formula1>AA81:AC81</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85">
-      <formula1>AA85:AC85</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>AA95:AF95</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B96">
-      <formula1>AA96:AF96</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
-      <formula1>AA97:AF97</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+      <formula1>AA91:AF91</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8050,20 +7558,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8074,10 +7582,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8085,10 +7593,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -8096,15 +7604,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -8112,10 +7620,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8123,15 +7631,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -8139,45 +7647,43 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11">
-        <v>1</v>
-      </c>
+      <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8186,42 +7692,40 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11" t="s">
-        <v>572</v>
-      </c>
+      <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8230,14 +7734,12 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>580</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8272,20 +7774,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8296,10 +7798,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8307,10 +7809,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -8318,15 +7820,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -8334,10 +7836,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8345,15 +7847,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -8361,21 +7863,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8383,21 +7885,21 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8408,24 +7910,24 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8433,15 +7935,15 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
@@ -8449,34 +7951,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8484,10 +7986,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8495,15 +7997,15 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -8511,10 +8013,10 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8522,15 +8024,15 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="178" customHeight="1">
@@ -8538,23 +8040,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8562,15 +8064,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="B56" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="178" customHeight="1">
@@ -8578,23 +8080,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8602,15 +8104,15 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="178" customHeight="1">
@@ -8618,10 +8120,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8629,15 +8131,15 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="178" customHeight="1">
@@ -8645,23 +8147,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8669,15 +8171,15 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
@@ -8685,97 +8187,97 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="AE84" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
       <c r="A87" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8783,10 +8285,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8794,23 +8296,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8818,10 +8320,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8829,34 +8331,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8864,10 +8366,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8875,15 +8377,15 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
@@ -8891,10 +8393,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8902,15 +8404,15 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -8918,10 +8420,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8929,15 +8431,15 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="178" customHeight="1">
@@ -8945,34 +8447,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8980,10 +8482,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8991,15 +8493,15 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
@@ -9007,10 +8509,10 @@
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9018,15 +8520,15 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>695</v>
+        <v>665</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="B144" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -9034,10 +8536,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -9045,15 +8547,15 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="B149" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="178" customHeight="1">
@@ -9061,34 +8563,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9096,10 +8598,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9107,15 +8609,15 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="B162" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
@@ -9123,10 +8625,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9134,15 +8636,15 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="B167" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -9150,10 +8652,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9161,10 +8663,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/cnrm-cm6-1/cmip6_cnrm-cerfacs_cnrm-cm6-1_land.xlsx
+++ b/cmip6/models/cnrm-cm6-1/cmip6_cnrm-cerfacs_cnrm-cm6-1_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="865">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1089,9 +1089,6 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
     <t>soil moisture freeze-thaw</t>
   </si>
   <si>
@@ -1305,9 +1302,6 @@
     <t>cmip6.land.snow.snow_albedo.functions</t>
   </si>
   <si>
-    <t>Snow age</t>
-  </si>
-  <si>
     <t>snow age</t>
   </si>
   <si>
@@ -1320,9 +1314,6 @@
     <t>aerosol deposition</t>
   </si>
   <si>
-    <t>Snow density</t>
-  </si>
-  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -1765,9 +1756,6 @@
   </si>
   <si>
     <t>cmip6.land.energy_balance.processes</t>
-  </si>
-  <si>
-    <t>Transpiration</t>
   </si>
   <si>
     <t>transpiration</t>
@@ -3292,20 +3280,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3316,10 +3304,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3327,7 +3315,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3338,10 +3326,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3354,7 +3342,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>99</v>
@@ -3365,10 +3353,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3381,7 +3369,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>126</v>
@@ -3392,10 +3380,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3403,7 +3391,7 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>202</v>
@@ -3414,10 +3402,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3454,20 +3442,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3478,10 +3466,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3489,7 +3477,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3500,10 +3488,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3513,12 +3501,12 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>99</v>
@@ -3529,10 +3517,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3545,7 +3533,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>126</v>
@@ -3556,10 +3544,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3567,10 +3555,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3578,10 +3566,10 @@
         <v>122</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3589,10 +3577,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3600,10 +3588,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3611,10 +3599,10 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3622,10 +3610,10 @@
         <v>127</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3635,10 +3623,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3646,10 +3634,10 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3660,10 +3648,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>74</v>
@@ -3671,10 +3659,10 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -3682,10 +3670,10 @@
         <v>122</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3695,10 +3683,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3706,10 +3694,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3722,10 +3710,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3733,10 +3721,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3747,13 +3735,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>74</v>
@@ -3761,10 +3749,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3772,21 +3760,21 @@
         <v>66</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>74</v>
@@ -3794,10 +3782,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3805,10 +3793,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3821,7 +3809,7 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>202</v>
@@ -3832,10 +3820,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3848,23 +3836,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3872,21 +3860,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>74</v>
@@ -3894,10 +3882,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3905,10 +3893,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3917,17 +3905,15 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>74</v>
@@ -3983,20 +3969,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4007,10 +3993,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4018,7 +4004,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4029,10 +4015,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4042,15 +4028,15 @@
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4058,10 +4044,10 @@
         <v>122</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4071,7 +4057,7 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>126</v>
@@ -4082,10 +4068,10 @@
         <v>127</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4093,10 +4079,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4104,10 +4090,10 @@
         <v>66</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4118,13 +4104,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>74</v>
@@ -4132,10 +4118,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4143,10 +4129,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4154,7 +4140,7 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>202</v>
@@ -4165,10 +4151,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4181,23 +4167,23 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -4205,10 +4191,10 @@
         <v>122</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4218,7 +4204,7 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>226</v>
@@ -4229,21 +4215,21 @@
         <v>66</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>74</v>
@@ -4251,10 +4237,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4262,10 +4248,10 @@
         <v>66</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4276,13 +4262,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>74</v>
@@ -4290,10 +4276,10 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -4301,10 +4287,10 @@
         <v>122</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4314,10 +4300,10 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
@@ -4325,10 +4311,10 @@
         <v>122</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4338,20 +4324,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>61</v>
@@ -4362,10 +4348,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -6486,14 +6472,12 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="11"/>
+      <c r="AA181" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="AA181" s="6" t="s">
+      <c r="AB181" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="AB181" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>74</v>
@@ -6553,7 +6537,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD70"/>
+  <dimension ref="A1:XFD69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6567,20 +6551,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6591,10 +6575,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6602,7 +6586,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6613,10 +6597,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6629,7 +6613,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>99</v>
@@ -6640,10 +6624,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6656,10 +6640,10 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -6667,10 +6651,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>371</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6680,10 +6664,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6691,10 +6675,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>375</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
@@ -6702,10 +6686,10 @@
         <v>246</v>
       </c>
       <c r="AA24" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB24" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>74</v>
@@ -6713,10 +6697,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6724,10 +6708,10 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
@@ -6735,10 +6719,10 @@
         <v>246</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -6746,10 +6730,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6757,19 +6741,19 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11"/>
       <c r="AA32" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>74</v>
@@ -6777,10 +6761,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6788,19 +6772,19 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>74</v>
@@ -6808,10 +6792,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6819,19 +6803,19 @@
         <v>66</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>74</v>
@@ -6839,10 +6823,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6850,10 +6834,10 @@
         <v>66</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6863,13 +6847,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA45" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AA45" s="6" t="s">
+      <c r="AB45" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>74</v>
@@ -6877,13 +6861,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA46" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB46" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>74</v>
@@ -6891,7 +6875,7 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>351</v>
@@ -6902,10 +6886,10 @@
         <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>405</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6915,19 +6899,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA51" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="AA51" s="6" t="s">
+      <c r="AB51" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AB51" s="6" t="s">
+      <c r="AC51" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="AC51" s="6" t="s">
+      <c r="AD51" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="AD51" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>74</v>
@@ -6935,7 +6919,7 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>202</v>
@@ -6946,10 +6930,10 @@
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
@@ -6962,23 +6946,23 @@
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
       <c r="A59" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>415</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
       <c r="B60" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>418</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="24" customHeight="1">
@@ -6986,10 +6970,10 @@
         <v>66</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>420</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
@@ -6997,13 +6981,13 @@
         <v>246</v>
       </c>
       <c r="AA64" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC64" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="AB64" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC64" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>74</v>
@@ -7011,7 +6995,7 @@
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>250</v>
@@ -7022,10 +7006,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>424</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
@@ -7034,53 +7018,28 @@
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
-      <c r="B69" s="11" t="s">
-        <v>426</v>
-      </c>
+      <c r="B69" s="11"/>
       <c r="AA69" s="6" t="s">
         <v>253</v>
       </c>
       <c r="AB69" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC69" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD69" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="AC69" s="6" t="s">
+      <c r="AE69" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="AD69" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE69" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="AF69" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="24" customHeight="1">
-      <c r="B70" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="AA70" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC70" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="AD70" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE70" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AF70" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="11">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -7114,9 +7073,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
       <formula1>AA69:AF69</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B70">
-      <formula1>AA70:AF70</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7138,20 +7094,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7162,10 +7118,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7173,7 +7129,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7184,10 +7140,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7200,7 +7156,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>126</v>
@@ -7211,10 +7167,10 @@
         <v>127</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7222,10 +7178,10 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
@@ -7233,10 +7189,10 @@
         <v>122</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7244,7 +7200,7 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>99</v>
@@ -7255,10 +7211,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7271,10 +7227,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7282,21 +7238,21 @@
         <v>66</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>74</v>
@@ -7304,10 +7260,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7315,10 +7271,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7328,19 +7284,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA33" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD33" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="AA33" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>89</v>
@@ -7351,19 +7307,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AC34" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD34" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="AD34" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>89</v>
@@ -7374,19 +7330,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AC35" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD35" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>89</v>
@@ -7397,19 +7353,19 @@
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AC36" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD36" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="AD36" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="AE36" s="6" t="s">
         <v>89</v>
@@ -7423,16 +7379,16 @@
         <v>93</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AC37" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD37" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="AD37" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="AE37" s="6" t="s">
         <v>89</v>
@@ -7443,10 +7399,10 @@
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
@@ -7454,10 +7410,10 @@
         <v>66</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="24" customHeight="1">
@@ -7468,40 +7424,40 @@
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="B42" s="11"/>
       <c r="AA42" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD42" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="AB42" s="6" t="s">
+      <c r="AE42" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AC42" s="6" t="s">
+      <c r="AF42" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AG42" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AE42" s="6" t="s">
+      <c r="AH42" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="AF42" s="6" t="s">
+      <c r="AI42" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="AG42" s="6" t="s">
+      <c r="AJ42" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="AH42" s="6" t="s">
+      <c r="AK42" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="AI42" s="6" t="s">
+      <c r="AL42" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="AJ42" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK42" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="AL42" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="AM42" s="6" t="s">
         <v>74</v>
@@ -7509,10 +7465,10 @@
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:39" ht="24" customHeight="1">
@@ -7520,24 +7476,24 @@
         <v>66</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AC46" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="AA46" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="AC46" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="AD46" s="6" t="s">
         <v>74</v>
@@ -7545,10 +7501,10 @@
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="24" customHeight="1">
@@ -7556,10 +7512,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
@@ -7567,10 +7523,10 @@
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="24" customHeight="1">
@@ -7578,10 +7534,10 @@
         <v>122</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
@@ -7591,10 +7547,10 @@
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="24" customHeight="1">
@@ -7602,19 +7558,19 @@
         <v>66</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="B58" s="11"/>
       <c r="AA58" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AC58" s="6" t="s">
         <v>74</v>
@@ -7622,10 +7578,10 @@
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="24" customHeight="1">
@@ -7633,10 +7589,10 @@
         <v>46</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="24" customHeight="1">
@@ -7649,10 +7605,10 @@
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
@@ -7660,24 +7616,24 @@
         <v>66</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AD67" s="6" t="s">
         <v>74</v>
@@ -7685,10 +7641,10 @@
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
@@ -7696,10 +7652,10 @@
         <v>46</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
@@ -7712,10 +7668,10 @@
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="A74" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
@@ -7723,19 +7679,19 @@
         <v>66</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="B76" s="11"/>
       <c r="AA76" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC76" s="6" t="s">
         <v>74</v>
@@ -7743,10 +7699,10 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
@@ -7754,10 +7710,10 @@
         <v>46</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
@@ -7770,10 +7726,10 @@
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="24" customHeight="1">
@@ -7781,19 +7737,19 @@
         <v>66</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="B85" s="11"/>
       <c r="AA85" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC85" s="6" t="s">
         <v>74</v>
@@ -7801,10 +7757,10 @@
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="24" customHeight="1">
@@ -7812,10 +7768,10 @@
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="24" customHeight="1">
@@ -7828,10 +7784,10 @@
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
@@ -7839,10 +7795,10 @@
         <v>66</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
@@ -7852,22 +7808,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA95" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB95" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="AC95" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="AA95" s="6" t="s">
+      <c r="AD95" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="AB95" s="6" t="s">
+      <c r="AE95" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="AC95" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD95" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE95" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>74</v>
@@ -7875,22 +7831,22 @@
     </row>
     <row r="96" spans="1:32" ht="24" customHeight="1">
       <c r="B96" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA96" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB96" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="AC96" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD96" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="AB96" s="6" t="s">
+      <c r="AE96" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="AC96" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD96" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE96" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="AF96" s="6" t="s">
         <v>74</v>
@@ -7898,22 +7854,22 @@
     </row>
     <row r="97" spans="1:32" ht="24" customHeight="1">
       <c r="B97" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AA97" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB97" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="AC97" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="AD97" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="AB97" s="6" t="s">
+      <c r="AE97" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="AC97" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD97" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="AE97" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="AF97" s="6" t="s">
         <v>74</v>
@@ -7921,10 +7877,10 @@
     </row>
     <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="24" customHeight="1">
@@ -7932,10 +7888,10 @@
         <v>46</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="24" customHeight="1">
@@ -7948,7 +7904,7 @@
     </row>
     <row r="104" spans="1:32" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>202</v>
@@ -7959,10 +7915,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="24" customHeight="1">
@@ -8050,20 +8006,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8074,10 +8030,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8085,7 +8041,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8096,10 +8052,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8112,7 +8068,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>99</v>
@@ -8123,10 +8079,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8139,10 +8095,10 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -8150,10 +8106,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8163,10 +8119,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8174,10 +8130,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8187,19 +8143,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AC25" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>74</v>
@@ -8207,7 +8163,7 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>351</v>
@@ -8218,10 +8174,10 @@
         <v>66</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8230,11 +8186,9 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>580</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>74</v>
@@ -8272,20 +8226,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8296,10 +8250,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8307,7 +8261,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8318,10 +8272,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8334,7 +8288,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>99</v>
@@ -8345,10 +8299,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8361,7 +8315,7 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>126</v>
@@ -8372,10 +8326,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8383,10 +8337,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8394,10 +8348,10 @@
         <v>66</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8408,13 +8362,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>74</v>
@@ -8422,7 +8376,7 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>202</v>
@@ -8433,10 +8387,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8449,23 +8403,23 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -8473,10 +8427,10 @@
         <v>127</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8484,10 +8438,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8495,10 +8449,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8511,10 +8465,10 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8522,10 +8476,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8538,20 +8492,20 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>293</v>
@@ -8562,10 +8516,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8578,23 +8532,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8602,10 +8556,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8618,10 +8572,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8629,10 +8583,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8645,20 +8599,20 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>293</v>
@@ -8669,10 +8623,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8685,10 +8639,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8696,25 +8650,25 @@
         <v>66</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>74</v>
@@ -8722,10 +8676,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8733,25 +8687,25 @@
         <v>66</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11"/>
       <c r="AA88" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>74</v>
@@ -8759,20 +8713,20 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>293</v>
@@ -8783,10 +8737,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8794,20 +8748,20 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>293</v>
@@ -8818,10 +8772,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8829,23 +8783,23 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -8853,10 +8807,10 @@
         <v>127</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8864,10 +8818,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8875,10 +8829,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8891,10 +8845,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8902,10 +8856,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8918,7 +8872,7 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>293</v>
@@ -8929,10 +8883,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8945,23 +8899,23 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -8969,10 +8923,10 @@
         <v>127</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8980,10 +8934,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8991,10 +8945,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -9007,10 +8961,10 @@
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9018,10 +8972,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -9034,7 +8988,7 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>293</v>
@@ -9045,10 +8999,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9061,23 +9015,23 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -9085,10 +9039,10 @@
         <v>122</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9096,10 +9050,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9107,10 +9061,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9123,10 +9077,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9134,10 +9088,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9150,10 +9104,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9161,10 +9115,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
